--- a/WWW/posts/cancer-genetics-epigenetics/post_info.xlsx
+++ b/WWW/posts/cancer-genetics-epigenetics/post_info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="438" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -464,15 +464,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>166680</xdr:colOff>
+      <xdr:colOff>274680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>670320</xdr:colOff>
+      <xdr:colOff>776880</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>197640</xdr:rowOff>
+      <xdr:rowOff>178560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -485,8 +485,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="166680" y="20520"/>
-          <a:ext cx="503640" cy="570600"/>
+          <a:off x="274680" y="2520"/>
+          <a:ext cx="502200" cy="569520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -508,15 +508,15 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="171" zoomScaleNormal="171" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B18" colorId="64" zoomScale="171" zoomScaleNormal="171" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.83400809716599"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.83400809716599"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6963562753036"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.17004048583"/>
     <col collapsed="false" hidden="false" max="26" min="5" style="0" width="8.83400809716599"/>
     <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.502024291498"/>
@@ -798,9 +798,9 @@
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="20" t="n">
-        <v>43818</v>
+        <v>43936</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
